--- a/aoc23.xlsx
+++ b/aoc23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\projects\coding\aoc23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B17380-BC58-4A19-B148-6AD31E339837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146CA586-5BD6-4FCF-AF90-B7EEB101737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F6E20D8C-3210-426B-8E26-F4E57EA2156B}"/>
   </bookViews>
@@ -92,10 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,35 +215,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -252,24 +245,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2775</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18685</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>644</c:v>
+                  <c:v>1341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1341</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,35 +299,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -345,24 +329,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13779</c:v>
+                  <c:v>2513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17238</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2513</c:v>
+                  <c:v>1744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1744</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,35 +640,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -695,35 +670,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11004</c:v>
+                  <c:v>1869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1447</c:v>
+                  <c:v>-138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1869</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-138</c:v>
+                  <c:v>-93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>403</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2405,7 +2374,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,7 +2403,7 @@
       <c r="C2" s="1">
         <v>13779</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <f>C2-B2</f>
         <v>11004</v>
       </c>
@@ -2449,7 +2418,7 @@
       <c r="C3" s="1">
         <v>17238</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <f t="shared" ref="D3:D26" si="0">C3-B3</f>
         <v>-1447</v>
       </c>
@@ -2467,7 +2436,7 @@
       <c r="C4">
         <v>2513</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>1869</v>
       </c>
@@ -2482,7 +2451,7 @@
       <c r="C5">
         <v>945</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>-138</v>
       </c>
@@ -2497,7 +2466,7 @@
       <c r="C6">
         <v>1744</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
@@ -2506,16 +2475,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="B7">
+        <v>135</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2524,7 +2499,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2533,7 +2508,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2542,7 +2517,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2551,7 +2526,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2560,7 +2535,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2569,7 +2544,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2578,7 +2553,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2587,7 +2562,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2596,7 +2571,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2605,7 +2580,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2614,7 +2589,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2623,7 +2598,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2632,7 +2607,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2641,7 +2616,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2650,7 +2625,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2659,7 +2634,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2668,7 +2643,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2677,7 +2652,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
